--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/74.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/74.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2522620631823027</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.711026065461676</v>
+        <v>-1.70063484689192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06237929425097698</v>
+        <v>0.05485958222735017</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1148374278229085</v>
+        <v>-0.1168715132798633</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2808302888396267</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.73880612252552</v>
+        <v>-1.734555585329263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06525994960725805</v>
+        <v>0.06106918463732215</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1290577284012895</v>
+        <v>-0.1327819040535131</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3160869554369598</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.845972844954214</v>
+        <v>-1.842382241930199</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09044723387424586</v>
+        <v>0.08757145788337876</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.133053318754666</v>
+        <v>-0.1375777103347831</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3359427653933084</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.996468332259091</v>
+        <v>-1.998224293887448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1235470190806862</v>
+        <v>0.1208719069924692</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.162972977552542</v>
+        <v>-0.1668459738498921</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3308203844326115</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.119550324826849</v>
+        <v>-2.11616465515022</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2331442754062215</v>
+        <v>0.2269895658571568</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1567066525196324</v>
+        <v>-0.162014182248694</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3057728628249577</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.085849767753812</v>
+        <v>-2.078805793858048</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3295587062245243</v>
+        <v>0.3232179708690514</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1728256361647301</v>
+        <v>-0.1808113275853924</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2781657053014013</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.839867538979966</v>
+        <v>-1.838003621391824</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4443061327445201</v>
+        <v>0.4362753071937784</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.211337247535956</v>
+        <v>-0.2160171688886438</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2604352445802347</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.460257789137389</v>
+        <v>-1.462690762716937</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5419611422193285</v>
+        <v>0.5364889339075448</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.189488669053487</v>
+        <v>-0.1936385693380808</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2534458701258533</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9835657453354698</v>
+        <v>-0.9858767347796683</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5669587411558475</v>
+        <v>0.5658578343343174</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1905261441246355</v>
+        <v>-0.1933006732831624</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2494655129743057</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4172598862609888</v>
+        <v>-0.4292326291455532</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4961115751861467</v>
+        <v>0.4981700574701713</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1423344816927412</v>
+        <v>-0.141756276891184</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2385940997702376</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1650033274792517</v>
+        <v>0.1452614150142706</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3373358047737388</v>
+        <v>0.3408306502515051</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06747586743206831</v>
+        <v>-0.06185117895109771</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2098026787731194</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7118722344271257</v>
+        <v>0.6831102050737174</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09863053959417455</v>
+        <v>0.1044949269011071</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04076309554634906</v>
+        <v>0.04612307845361099</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1541876954956853</v>
       </c>
       <c r="E14" t="n">
-        <v>1.252262563946582</v>
+        <v>1.218382690194581</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1893679047594909</v>
+        <v>-0.1833022436292315</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1743485320883855</v>
+        <v>0.180474575365643</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.0697448902725423</v>
       </c>
       <c r="E15" t="n">
-        <v>1.893524014669339</v>
+        <v>1.856821428025347</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5697638423543965</v>
+        <v>-0.563090700230096</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3112421783811033</v>
+        <v>0.3149090214897126</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.03688553499840536</v>
       </c>
       <c r="E16" t="n">
-        <v>2.453660526098513</v>
+        <v>2.416229694166485</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8710762451607953</v>
+        <v>-0.8549462829435162</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4891853159809957</v>
+        <v>0.4931882253824932</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1494138173282496</v>
       </c>
       <c r="E17" t="n">
-        <v>2.924156995666026</v>
+        <v>2.879497383873179</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.160509832866849</v>
+        <v>-1.143557697577313</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6328191956724564</v>
+        <v>0.63319551673001</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2548551288006046</v>
       </c>
       <c r="E18" t="n">
-        <v>3.301677157270064</v>
+        <v>3.255532998550013</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.529991239951348</v>
+        <v>-1.516763890234713</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8030200002017089</v>
+        <v>0.8040410074145852</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3518320691847016</v>
       </c>
       <c r="E19" t="n">
-        <v>3.638433880364323</v>
+        <v>3.590589262797498</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.924479394782517</v>
+        <v>-1.915784365614797</v>
       </c>
       <c r="G19" t="n">
-        <v>1.004176718758632</v>
+        <v>1.004847021582379</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4394793176976045</v>
       </c>
       <c r="E20" t="n">
-        <v>3.990353231482538</v>
+        <v>3.947087898356738</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.233650015588138</v>
+        <v>-2.224607941555348</v>
       </c>
       <c r="G20" t="n">
-        <v>1.160177350091837</v>
+        <v>1.159327730589127</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5133593880674923</v>
       </c>
       <c r="E21" t="n">
-        <v>4.230579028909236</v>
+        <v>4.182714893880755</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.482311625894938</v>
+        <v>-2.469377038103142</v>
       </c>
       <c r="G21" t="n">
-        <v>1.259207730692712</v>
+        <v>1.257976910767034</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5699061823801496</v>
       </c>
       <c r="E22" t="n">
-        <v>4.516819681872513</v>
+        <v>4.467913802328146</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.717405550747477</v>
+        <v>-2.700604065865098</v>
       </c>
       <c r="G22" t="n">
-        <v>1.406247407443134</v>
+        <v>1.404271874371147</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.608368734604351</v>
       </c>
       <c r="E23" t="n">
-        <v>4.687769468992812</v>
+        <v>4.639566218068059</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.899916384295535</v>
+        <v>-2.891247581716915</v>
       </c>
       <c r="G23" t="n">
-        <v>1.511891157941988</v>
+        <v>1.511639260702491</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6322007724873026</v>
       </c>
       <c r="E24" t="n">
-        <v>4.847314959299276</v>
+        <v>4.805580527072113</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.105969241085054</v>
+        <v>-3.100001472223413</v>
       </c>
       <c r="G24" t="n">
-        <v>1.616651133380234</v>
+        <v>1.617789245363046</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6460030341493889</v>
       </c>
       <c r="E25" t="n">
-        <v>4.952843434790225</v>
+        <v>4.910172164403577</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.19385118659599</v>
+        <v>-3.190779016147209</v>
       </c>
       <c r="G25" t="n">
-        <v>1.676645370827881</v>
+        <v>1.676893608543317</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6550081608246897</v>
       </c>
       <c r="E26" t="n">
-        <v>4.981380403413913</v>
+        <v>4.933504069971898</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.246833470983402</v>
+        <v>-3.242743342925129</v>
       </c>
       <c r="G26" t="n">
-        <v>1.709100469878998</v>
+        <v>1.709759794130563</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6631198352839279</v>
       </c>
       <c r="E27" t="n">
-        <v>4.946385594664816</v>
+        <v>4.895592620546592</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.229407427328033</v>
+        <v>-3.229851144620367</v>
       </c>
       <c r="G27" t="n">
-        <v>1.715689442949907</v>
+        <v>1.719092190405485</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6720628988702009</v>
       </c>
       <c r="E28" t="n">
-        <v>4.916831278352313</v>
+        <v>4.863974332663973</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.28939404076722</v>
+        <v>-3.285375578388465</v>
       </c>
       <c r="G28" t="n">
-        <v>1.724952918188357</v>
+        <v>1.728655136696218</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6828589947021511</v>
       </c>
       <c r="E29" t="n">
-        <v>4.836752353019353</v>
+        <v>4.786010612237975</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.254288836375631</v>
+        <v>-3.255351013234188</v>
       </c>
       <c r="G29" t="n">
-        <v>1.666594487995749</v>
+        <v>1.669526376688877</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.69574909292069</v>
       </c>
       <c r="E30" t="n">
-        <v>4.761199039107864</v>
+        <v>4.712827450076329</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.124929235242444</v>
+        <v>-3.123963425850814</v>
       </c>
       <c r="G30" t="n">
-        <v>1.614709145945469</v>
+        <v>1.61651878059338</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7098642509702736</v>
       </c>
       <c r="E31" t="n">
-        <v>4.627975285527139</v>
+        <v>4.57824113370375</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.083844978456695</v>
+        <v>-3.077632936364016</v>
       </c>
       <c r="G31" t="n">
-        <v>1.577642436657459</v>
+        <v>1.580607870987808</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7229998593453122</v>
       </c>
       <c r="E32" t="n">
-        <v>4.511996429160789</v>
+        <v>4.461110747099698</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.98880012451803</v>
+        <v>-2.976795055837598</v>
       </c>
       <c r="G32" t="n">
-        <v>1.533460392754506</v>
+        <v>1.53596167744985</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7321120845216503</v>
       </c>
       <c r="E33" t="n">
-        <v>4.27057640704902</v>
+        <v>4.216774084311719</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.919137424502574</v>
+        <v>-2.906827395483767</v>
       </c>
       <c r="G33" t="n">
-        <v>1.461767266806156</v>
+        <v>1.462463186298326</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7331586038141307</v>
       </c>
       <c r="E34" t="n">
-        <v>4.131242468128632</v>
+        <v>4.073392711780433</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.79142003479153</v>
+        <v>-2.767616660540084</v>
       </c>
       <c r="G34" t="n">
-        <v>1.389225131275772</v>
+        <v>1.385186236554347</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.722091536398663</v>
       </c>
       <c r="E35" t="n">
-        <v>3.937562157227287</v>
+        <v>3.886170241004495</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.746640878546041</v>
+        <v>-2.722467892364485</v>
       </c>
       <c r="G35" t="n">
-        <v>1.329797510136825</v>
+        <v>1.321992965157157</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6969054971331267</v>
       </c>
       <c r="E36" t="n">
-        <v>3.74894784746701</v>
+        <v>3.699208816278206</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.717169511445575</v>
+        <v>-2.68947972264189</v>
       </c>
       <c r="G36" t="n">
-        <v>1.277574272031626</v>
+        <v>1.273014505052258</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6574512396530576</v>
       </c>
       <c r="E37" t="n">
-        <v>3.517521985564434</v>
+        <v>3.467464575782368</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.65790473912732</v>
+        <v>-2.632344793326839</v>
       </c>
       <c r="G37" t="n">
-        <v>1.205434074227219</v>
+        <v>1.198515743990866</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6059777452605297</v>
       </c>
       <c r="E38" t="n">
-        <v>3.325437227153461</v>
+        <v>3.282001116238172</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.672839256818173</v>
+        <v>-2.645414173588196</v>
       </c>
       <c r="G38" t="n">
-        <v>1.15495886878158</v>
+        <v>1.147479411522619</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5461082393650811</v>
       </c>
       <c r="E39" t="n">
-        <v>3.096765767027079</v>
+        <v>3.058190723905472</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.653410233660364</v>
+        <v>-2.625314237685964</v>
       </c>
       <c r="G39" t="n">
-        <v>1.081036482759716</v>
+        <v>1.072890382201069</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4818393766150956</v>
       </c>
       <c r="E40" t="n">
-        <v>2.906202150783916</v>
+        <v>2.870594981675365</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.625702147236376</v>
+        <v>-2.600735044333694</v>
       </c>
       <c r="G40" t="n">
-        <v>1.001612612233584</v>
+        <v>0.9955024268939215</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4175486969107954</v>
       </c>
       <c r="E41" t="n">
-        <v>2.748623044739288</v>
+        <v>2.709827210332697</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.595625738824576</v>
+        <v>-2.569375362818016</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9558514836985303</v>
+        <v>0.9500291809182934</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3571266384942947</v>
       </c>
       <c r="E42" t="n">
-        <v>2.525109073855488</v>
+        <v>2.487589193504654</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.541281196605647</v>
+        <v>-2.514731959467481</v>
       </c>
       <c r="G42" t="n">
-        <v>0.893042462327692</v>
+        <v>0.8900355533913241</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3015884611173155</v>
       </c>
       <c r="E43" t="n">
-        <v>2.340155507997053</v>
+        <v>2.300870517207711</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.484826938765847</v>
+        <v>-2.458335644091972</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8471806968809753</v>
+        <v>0.8411284540056043</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2512904239927148</v>
       </c>
       <c r="E44" t="n">
-        <v>2.170020574900889</v>
+        <v>2.129786547538527</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.447391227468404</v>
+        <v>-2.423879395300443</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7996520182247062</v>
+        <v>0.798826795549066</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2056731463861584</v>
       </c>
       <c r="E45" t="n">
-        <v>2.011751648570859</v>
+        <v>1.972248306179241</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.413800456117182</v>
+        <v>-2.394073181748443</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7373181250610547</v>
+        <v>0.7319679008846207</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.163773161306591</v>
       </c>
       <c r="E46" t="n">
-        <v>1.905147882926803</v>
+        <v>1.869548032866373</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.314767025912923</v>
+        <v>-2.296479774261986</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6653755415559142</v>
+        <v>0.6605181332862927</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.125302153983686</v>
       </c>
       <c r="E47" t="n">
-        <v>1.733210634230849</v>
+        <v>1.702876229372784</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.218975934026257</v>
+        <v>-2.198621661201821</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6044286080111878</v>
+        <v>0.5940178719797752</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.08903299371330282</v>
       </c>
       <c r="E48" t="n">
-        <v>1.623240106451144</v>
+        <v>1.590033585126273</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.185251590046826</v>
+        <v>-2.168649549225744</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5556093372029197</v>
+        <v>0.5434243419228471</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.05389345881634265</v>
       </c>
       <c r="E49" t="n">
-        <v>1.503005833523122</v>
+        <v>1.474796392302848</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.08720989086296</v>
+        <v>-2.068842739603369</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4958456497710845</v>
+        <v>0.4873799507778215</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.01941623634549611</v>
       </c>
       <c r="E50" t="n">
-        <v>1.400625768565547</v>
+        <v>1.374357704859361</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.009202256148237</v>
+        <v>-1.997721109329131</v>
       </c>
       <c r="G50" t="n">
-        <v>0.442301933400726</v>
+        <v>0.4321357755606894</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01512406351179162</v>
       </c>
       <c r="E51" t="n">
-        <v>1.313311354244325</v>
+        <v>1.289052369247348</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.98187293046451</v>
+        <v>-1.967528815988749</v>
       </c>
       <c r="G51" t="n">
-        <v>0.390570291360986</v>
+        <v>0.3812555827856897</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04964572169345866</v>
       </c>
       <c r="E52" t="n">
-        <v>1.241446840585808</v>
+        <v>1.216960355176404</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.931022623802671</v>
+        <v>-1.916592510511488</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3213339258985767</v>
+        <v>0.3097771489155545</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08403868948612957</v>
       </c>
       <c r="E53" t="n">
-        <v>1.186189247113788</v>
+        <v>1.161220924369753</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.919510980949728</v>
+        <v>-1.910124301734575</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2821684795618769</v>
+        <v>0.2681543321722368</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1191082994781959</v>
       </c>
       <c r="E54" t="n">
-        <v>1.092518849420175</v>
+        <v>1.066675900425683</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.840731796578918</v>
+        <v>-1.829920952583559</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2580735632269449</v>
+        <v>0.2444936793591493</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1547241299729452</v>
       </c>
       <c r="E55" t="n">
-        <v>1.049097986521804</v>
+        <v>1.023058643069399</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.864047844209643</v>
+        <v>-1.854182377263243</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2157206714335597</v>
+        <v>0.202666539189121</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.190754140009231</v>
       </c>
       <c r="E56" t="n">
-        <v>1.050716715997893</v>
+        <v>1.02421566259319</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.829121346576342</v>
+        <v>-1.818816736742684</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1818865417323147</v>
+        <v>0.166881273242959</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2266732236468393</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9618457841096102</v>
+        <v>0.9377789241258087</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.833340167897409</v>
+        <v>-1.820838623786104</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1337113471586926</v>
+        <v>0.1193794310964667</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2613817694278263</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9167104341889004</v>
+        <v>0.8903179466646585</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.844503546043928</v>
+        <v>-1.836517854623266</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1241362024544248</v>
+        <v>0.1054067583128455</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2946879284139494</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8679448364001862</v>
+        <v>0.8449355788698657</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.853217482752628</v>
+        <v>-1.845927710824135</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1198618783517744</v>
+        <v>0.102263227144886</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3269772711332206</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8076480782968732</v>
+        <v>0.7835037583871246</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.857397269150382</v>
+        <v>-1.85130782111373</v>
       </c>
       <c r="G60" t="n">
-        <v>0.09579806797135657</v>
+        <v>0.07748336988996589</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3588542037200267</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8005107865375675</v>
+        <v>0.7754277987063035</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.821998692913279</v>
+        <v>-1.814938251159243</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07270464138764485</v>
+        <v>0.05395324010170256</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3913078550157541</v>
       </c>
       <c r="E62" t="n">
-        <v>0.816346766988654</v>
+        <v>0.7907057017381657</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.808030899495071</v>
+        <v>-1.794555921983676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03654305438392924</v>
+        <v>0.01921154843345643</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4250497241825768</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7931246471421485</v>
+        <v>0.7685509430759692</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.863863038244588</v>
+        <v>-1.856064592471688</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0438718612357339</v>
+        <v>0.02610060247732574</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4604574838372302</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8357385849851817</v>
+        <v>0.8069521588047037</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.8685423496766</v>
+        <v>-1.855017968590388</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02952957652200332</v>
+        <v>0.01314893690658073</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.498893386998468</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8562489975028654</v>
+        <v>0.8261481922639953</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.87649266569801</v>
+        <v>-1.860642657071359</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01328494921749555</v>
+        <v>-0.004944359969150408</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5410220514881706</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8737427423533533</v>
+        <v>0.8430942283467633</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.907316226938827</v>
+        <v>-1.890367751173352</v>
       </c>
       <c r="G66" t="n">
-        <v>0.001287809505861248</v>
+        <v>-0.01564724800472533</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5867346571787395</v>
       </c>
       <c r="E67" t="n">
-        <v>0.869751421444714</v>
+        <v>0.835365313531012</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.91046097794814</v>
+        <v>-1.889360772136041</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.01048243971402277</v>
+        <v>-0.02989011564814598</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6362280879337362</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8700801686894811</v>
+        <v>0.8395353411979384</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.933124410454744</v>
+        <v>-1.907349772576048</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04773334504641041</v>
+        <v>-0.06548874586722313</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6885725009242067</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8469214805933574</v>
+        <v>0.8127140794379426</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.948729230969343</v>
+        <v>-1.922444089484209</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.03470360962904165</v>
+        <v>-0.0539545359492406</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7422243263492133</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8652550862157272</v>
+        <v>0.8336550959534104</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.942060968210457</v>
+        <v>-1.912682309052856</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.06336195246740264</v>
+        <v>-0.08442251343551309</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7939290110117806</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8678301713129576</v>
+        <v>0.840308720616055</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.928303597425728</v>
+        <v>-1.90266436193727</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1018558761390028</v>
+        <v>-0.1202553531944615</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8400794660734804</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8534549508826826</v>
+        <v>0.8264555922850764</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.959335141617315</v>
+        <v>-1.935410393151196</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.09797373103150143</v>
+        <v>-0.1170380216246155</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8779892609836745</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8714921350561529</v>
+        <v>0.8468458504294406</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.989822636565244</v>
+        <v>-1.969294536347934</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1231311291853286</v>
+        <v>-0.1434780829616438</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9058288418058222</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9331014424558277</v>
+        <v>0.9141036332164792</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.934268621644324</v>
+        <v>-1.914975000876752</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.140841395876062</v>
+        <v>-0.1600874428308469</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9227175035790156</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9347043139943216</v>
+        <v>0.9140487403555719</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.945000175951706</v>
+        <v>-1.922117781922149</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1332301957509229</v>
+        <v>-0.1521926295910201</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9277938254216916</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9728292356564893</v>
+        <v>0.9623556777953716</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.970780303116493</v>
+        <v>-1.947311775316581</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1595220463635015</v>
+        <v>-0.1776244920493838</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9203890351420184</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9554452765278161</v>
+        <v>0.9468027005382961</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.926046281001083</v>
+        <v>-1.903119362762124</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1639238438875922</v>
+        <v>-0.1825184955596102</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9006312181249095</v>
       </c>
       <c r="E78" t="n">
-        <v>1.047300550287427</v>
+        <v>1.040055912489014</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.951114630736105</v>
+        <v>-1.929117841529186</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1164518878542606</v>
+        <v>-0.1310338713939532</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8695585901610617</v>
       </c>
       <c r="E79" t="n">
-        <v>1.128283378063327</v>
+        <v>1.120428819588166</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.90037228003405</v>
+        <v>-1.878085168585</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1283593692264129</v>
+        <v>-0.1430956626973228</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.8290697953380292</v>
       </c>
       <c r="E80" t="n">
-        <v>1.159759554428264</v>
+        <v>1.158132286062701</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.867064511876839</v>
+        <v>-1.848425945916095</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1375825897001971</v>
+        <v>-0.148517857513613</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7806138974448262</v>
       </c>
       <c r="E81" t="n">
-        <v>1.234130842068216</v>
+        <v>1.234019226584371</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.774057097958851</v>
+        <v>-1.752589719899349</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.142402792808537</v>
+        <v>-0.1540919225784135</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7254924258572819</v>
       </c>
       <c r="E82" t="n">
-        <v>1.316595167167937</v>
+        <v>1.318172422038007</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.721650883650627</v>
+        <v>-1.703006828403793</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1043431326587814</v>
+        <v>-0.111863454603085</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6645563610873513</v>
       </c>
       <c r="E83" t="n">
-        <v>1.403164258422172</v>
+        <v>1.40372538544478</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.613951700471132</v>
+        <v>-1.600909156719552</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.09737905837167209</v>
+        <v>-0.1071347395962573</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5976408664607531</v>
       </c>
       <c r="E84" t="n">
-        <v>1.514752295836613</v>
+        <v>1.517157213065031</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.513081189188508</v>
+        <v>-1.505962804970181</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.07240463642086936</v>
+        <v>-0.08018295481143733</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5258172358434469</v>
       </c>
       <c r="E85" t="n">
-        <v>1.627467466661685</v>
+        <v>1.633251344439286</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.371094095324267</v>
+        <v>-1.3656450639982</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.05986771691031303</v>
+        <v>-0.0672068924136224</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4500282775293481</v>
       </c>
       <c r="E86" t="n">
-        <v>1.723371393873549</v>
+        <v>1.723535462535594</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.250057776706322</v>
+        <v>-1.244843564840803</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04255877802487989</v>
+        <v>-0.04927095507249227</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3727743339975238</v>
       </c>
       <c r="E87" t="n">
-        <v>1.830349650813128</v>
+        <v>1.832172093795251</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.067509737996982</v>
+        <v>-1.067884839213182</v>
       </c>
       <c r="G87" t="n">
-        <v>0.009975519625460585</v>
+        <v>0.006437369779645101</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2976276883918278</v>
       </c>
       <c r="E88" t="n">
-        <v>1.924878816819603</v>
+        <v>1.929942988198642</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8867573057599879</v>
+        <v>-0.8827269499280367</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01559715850304744</v>
+        <v>0.01207913603956464</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.228199883719423</v>
       </c>
       <c r="E89" t="n">
-        <v>2.016697495338609</v>
+        <v>2.01605402902464</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7498288939886953</v>
+        <v>-0.7470940096741571</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03356298195733823</v>
+        <v>0.02920631856332685</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1674388708432032</v>
       </c>
       <c r="E90" t="n">
-        <v>2.122841380792397</v>
+        <v>2.123669043150744</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6046201991098712</v>
+        <v>-0.6027215160431545</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03874120850292924</v>
+        <v>0.03677421432041676</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1183643023426867</v>
       </c>
       <c r="E91" t="n">
-        <v>2.143607350073638</v>
+        <v>2.146938736810036</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.40258153525437</v>
+        <v>-0.4010725915000953</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0685132664970322</v>
+        <v>0.06919698757566677</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0826021796379743</v>
       </c>
       <c r="E92" t="n">
-        <v>2.135812563824798</v>
+        <v>2.142361892051718</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2695663745450931</v>
+        <v>-0.272411044581446</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0621828997930641</v>
+        <v>0.06209385137425889</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06112650113054445</v>
       </c>
       <c r="E93" t="n">
-        <v>2.098499446583382</v>
+        <v>2.106024647893099</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07127018396211797</v>
+        <v>-0.06682325230794788</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03743048896859767</v>
+        <v>0.03898395693227497</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05279927174325618</v>
       </c>
       <c r="E94" t="n">
-        <v>2.024053748620867</v>
+        <v>2.036582739162626</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09047346046334602</v>
+        <v>0.09430620199603082</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01812771939087513</v>
+        <v>0.02095287196557213</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05305330867423148</v>
       </c>
       <c r="E95" t="n">
-        <v>1.914245459741177</v>
+        <v>1.925891285143005</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2172247358224204</v>
+        <v>0.2225109183277958</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0108203357689412</v>
+        <v>-0.008380653061948967</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05480102256390649</v>
       </c>
       <c r="E96" t="n">
-        <v>1.781659683188331</v>
+        <v>1.795918408769347</v>
       </c>
       <c r="F96" t="n">
-        <v>0.279459211915762</v>
+        <v>0.2868984144100581</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03766965388006745</v>
+        <v>-0.03447427945458438</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05287013756469049</v>
       </c>
       <c r="E97" t="n">
-        <v>1.672837026122266</v>
+        <v>1.687550142607459</v>
       </c>
       <c r="F97" t="n">
-        <v>0.347164066558857</v>
+        <v>0.357965761744065</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03804902454100475</v>
+        <v>-0.03733968679394676</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04774454246250429</v>
       </c>
       <c r="E98" t="n">
-        <v>1.554763092231286</v>
+        <v>1.568314309827274</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3588037927539169</v>
+        <v>0.3671346992776186</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08027688259565655</v>
+        <v>-0.07929856983015265</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04358474034051153</v>
       </c>
       <c r="E99" t="n">
-        <v>1.427010937041668</v>
+        <v>1.430747311107426</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3483650003713739</v>
+        <v>0.3573863371011544</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.08314289985569566</v>
+        <v>-0.07896555314064821</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.047106667454179</v>
       </c>
       <c r="E100" t="n">
-        <v>1.303770365097955</v>
+        <v>1.305509248947364</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3499331064312931</v>
+        <v>0.3593960257310392</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09590975946138601</v>
+        <v>-0.09344567992732386</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05741500084576903</v>
       </c>
       <c r="E101" t="n">
-        <v>1.214068111327265</v>
+        <v>1.212812894574517</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3111153148803397</v>
+        <v>0.3203989175011219</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1493412504272229</v>
+        <v>-0.148048218592517</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07732581575769575</v>
       </c>
       <c r="E102" t="n">
-        <v>1.054603740470808</v>
+        <v>1.05506667026446</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3379774413256777</v>
+        <v>0.3458399287696369</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1505092485231954</v>
+        <v>-0.1452694199892529</v>
       </c>
     </row>
   </sheetData>
